--- a/GUI + Reviews/202506/Business France.xlsx
+++ b/GUI + Reviews/202506/Business France.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202506\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE00F4E-7D43-4843-95E2-3FFA94507C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFAC5B6-6AF8-488C-9E38-0DFF8D3974E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7DE4998A-C1D8-4BB5-9D8F-409B188C2E86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7DE4998A-C1D8-4BB5-9D8F-409B188C2E86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1385,9 +1385,6 @@
     <t>ROCKWOOL B</t>
   </si>
   <si>
-    <t>DK0010219153</t>
-  </si>
-  <si>
     <t>TERADYNE INC.</t>
   </si>
   <si>
@@ -2157,6 +2154,9 @@
   </si>
   <si>
     <t>SNAP-ON INCORPORATED</t>
+  </si>
+  <si>
+    <t>DK0063855168</t>
   </si>
 </sst>
 </file>
@@ -2555,7 +2555,7 @@
   <dimension ref="A1:F341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2628,10 +2628,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" t="s">
         <v>454</v>
-      </c>
-      <c r="B4" t="s">
-        <v>455</v>
       </c>
       <c r="C4" s="1">
         <v>45796</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" t="s">
         <v>546</v>
-      </c>
-      <c r="B5" t="s">
-        <v>547</v>
       </c>
       <c r="C5" s="1">
         <v>45796</v>
@@ -2788,10 +2788,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>596</v>
+      </c>
+      <c r="B12" t="s">
         <v>597</v>
-      </c>
-      <c r="B12" t="s">
-        <v>598</v>
       </c>
       <c r="C12" s="1">
         <v>45796</v>
@@ -2891,7 +2891,7 @@
         <v>448</v>
       </c>
       <c r="B17" t="s">
-        <v>449</v>
+        <v>706</v>
       </c>
       <c r="C17" s="1">
         <v>45796</v>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>598</v>
+      </c>
+      <c r="B22" t="s">
         <v>599</v>
-      </c>
-      <c r="B22" t="s">
-        <v>600</v>
       </c>
       <c r="C22" s="1">
         <v>45775</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B25" t="s">
         <v>303</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>601</v>
+      </c>
+      <c r="B26" t="s">
         <v>602</v>
-      </c>
-      <c r="B26" t="s">
-        <v>603</v>
       </c>
       <c r="C26" s="1">
         <v>45764</v>
@@ -3128,10 +3128,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>603</v>
+      </c>
+      <c r="B29" t="s">
         <v>604</v>
-      </c>
-      <c r="B29" t="s">
-        <v>605</v>
       </c>
       <c r="C29" s="1">
         <v>45756</v>
@@ -3168,10 +3168,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>605</v>
+      </c>
+      <c r="B31" t="s">
         <v>606</v>
-      </c>
-      <c r="B31" t="s">
-        <v>607</v>
       </c>
       <c r="C31" s="1">
         <v>45751</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>607</v>
+      </c>
+      <c r="B34" t="s">
         <v>608</v>
-      </c>
-      <c r="B34" t="s">
-        <v>609</v>
       </c>
       <c r="C34" s="1">
         <v>45749</v>
@@ -3348,10 +3348,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>609</v>
+      </c>
+      <c r="B40" t="s">
         <v>610</v>
-      </c>
-      <c r="B40" t="s">
-        <v>611</v>
       </c>
       <c r="C40" s="1">
         <v>45736</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>611</v>
+      </c>
+      <c r="B41" t="s">
         <v>612</v>
-      </c>
-      <c r="B41" t="s">
-        <v>613</v>
       </c>
       <c r="C41" s="1">
         <v>45727</v>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>613</v>
+      </c>
+      <c r="B43" t="s">
         <v>614</v>
-      </c>
-      <c r="B43" t="s">
-        <v>615</v>
       </c>
       <c r="C43" s="1">
         <v>45723</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
@@ -3508,10 +3508,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>473</v>
+      </c>
+      <c r="B48" t="s">
         <v>474</v>
-      </c>
-      <c r="B48" t="s">
-        <v>475</v>
       </c>
       <c r="C48" s="1">
         <v>45719</v>
@@ -3548,10 +3548,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>616</v>
+      </c>
+      <c r="B50" t="s">
         <v>617</v>
-      </c>
-      <c r="B50" t="s">
-        <v>618</v>
       </c>
       <c r="C50" s="1">
         <v>45709</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>618</v>
+      </c>
+      <c r="B51" t="s">
         <v>619</v>
-      </c>
-      <c r="B51" t="s">
-        <v>620</v>
       </c>
       <c r="C51" s="1">
         <v>45708</v>
@@ -3588,10 +3588,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>620</v>
+      </c>
+      <c r="B52" t="s">
         <v>621</v>
-      </c>
-      <c r="B52" t="s">
-        <v>622</v>
       </c>
       <c r="C52" s="1">
         <v>45705</v>
@@ -3628,10 +3628,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>622</v>
+      </c>
+      <c r="B54" t="s">
         <v>623</v>
-      </c>
-      <c r="B54" t="s">
-        <v>624</v>
       </c>
       <c r="C54" s="1">
         <v>45700</v>
@@ -3648,10 +3648,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>624</v>
+      </c>
+      <c r="B55" t="s">
         <v>625</v>
-      </c>
-      <c r="B55" t="s">
-        <v>626</v>
       </c>
       <c r="C55" s="1">
         <v>45700</v>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>626</v>
+      </c>
+      <c r="B56" t="s">
         <v>627</v>
-      </c>
-      <c r="B56" t="s">
-        <v>628</v>
       </c>
       <c r="C56" s="1">
         <v>45700</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B58" t="s">
         <v>277</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>629</v>
+      </c>
+      <c r="B59" t="s">
         <v>630</v>
-      </c>
-      <c r="B59" t="s">
-        <v>631</v>
       </c>
       <c r="C59" s="1">
         <v>45680</v>
@@ -3768,10 +3768,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>631</v>
+      </c>
+      <c r="B61" t="s">
         <v>632</v>
-      </c>
-      <c r="B61" t="s">
-        <v>633</v>
       </c>
       <c r="C61" s="1">
         <v>45679</v>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>633</v>
+      </c>
+      <c r="B63" t="s">
         <v>634</v>
-      </c>
-      <c r="B63" t="s">
-        <v>635</v>
       </c>
       <c r="C63" s="1">
         <v>45673</v>
@@ -3848,10 +3848,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>635</v>
+      </c>
+      <c r="B65" t="s">
         <v>636</v>
-      </c>
-      <c r="B65" t="s">
-        <v>637</v>
       </c>
       <c r="C65" s="1">
         <v>45671</v>
@@ -3948,10 +3948,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>637</v>
+      </c>
+      <c r="B70" t="s">
         <v>638</v>
-      </c>
-      <c r="B70" t="s">
-        <v>639</v>
       </c>
       <c r="C70" s="1">
         <v>45645</v>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>639</v>
+      </c>
+      <c r="B74" t="s">
         <v>640</v>
-      </c>
-      <c r="B74" t="s">
-        <v>641</v>
       </c>
       <c r="C74" s="1">
         <v>45637</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B79" t="s">
         <v>185</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>642</v>
+      </c>
+      <c r="B80" t="s">
         <v>643</v>
-      </c>
-      <c r="B80" t="s">
-        <v>644</v>
       </c>
       <c r="C80" s="1">
         <v>45623</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>505</v>
+      </c>
+      <c r="B82" t="s">
         <v>506</v>
-      </c>
-      <c r="B82" t="s">
-        <v>507</v>
       </c>
       <c r="C82" s="1">
         <v>45618</v>
@@ -4208,10 +4208,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>644</v>
+      </c>
+      <c r="B83" t="s">
         <v>645</v>
-      </c>
-      <c r="B83" t="s">
-        <v>646</v>
       </c>
       <c r="C83" s="1">
         <v>45617</v>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>580</v>
+      </c>
+      <c r="B84" t="s">
         <v>581</v>
-      </c>
-      <c r="B84" t="s">
-        <v>582</v>
       </c>
       <c r="C84" s="1">
         <v>45615</v>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>646</v>
+      </c>
+      <c r="B85" t="s">
         <v>647</v>
-      </c>
-      <c r="B85" t="s">
-        <v>648</v>
       </c>
       <c r="C85" s="1">
         <v>45615</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B86" t="s">
         <v>286</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>649</v>
+      </c>
+      <c r="B88" t="s">
         <v>650</v>
-      </c>
-      <c r="B88" t="s">
-        <v>651</v>
       </c>
       <c r="C88" s="1">
         <v>45602</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>651</v>
+      </c>
+      <c r="B89" t="s">
         <v>652</v>
-      </c>
-      <c r="B89" t="s">
-        <v>653</v>
       </c>
       <c r="C89" s="1">
         <v>45602</v>
@@ -4368,10 +4368,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>653</v>
+      </c>
+      <c r="B91" t="s">
         <v>654</v>
-      </c>
-      <c r="B91" t="s">
-        <v>655</v>
       </c>
       <c r="C91" s="1">
         <v>45597</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>655</v>
+      </c>
+      <c r="B93" t="s">
         <v>656</v>
-      </c>
-      <c r="B93" t="s">
-        <v>657</v>
       </c>
       <c r="C93" s="1">
         <v>45589</v>
@@ -4428,10 +4428,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>451</v>
+      </c>
+      <c r="B94" t="s">
         <v>452</v>
-      </c>
-      <c r="B94" t="s">
-        <v>453</v>
       </c>
       <c r="C94" s="1">
         <v>45588</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>563</v>
+      </c>
+      <c r="B96" t="s">
         <v>564</v>
-      </c>
-      <c r="B96" t="s">
-        <v>565</v>
       </c>
       <c r="C96" s="1">
         <v>45581</v>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>515</v>
+      </c>
+      <c r="B97" t="s">
         <v>516</v>
-      </c>
-      <c r="B97" t="s">
-        <v>517</v>
       </c>
       <c r="C97" s="1">
         <v>45580</v>
@@ -4548,10 +4548,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>657</v>
+      </c>
+      <c r="B100" t="s">
         <v>658</v>
-      </c>
-      <c r="B100" t="s">
-        <v>659</v>
       </c>
       <c r="C100" s="1">
         <v>45572</v>
@@ -4568,10 +4568,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>543</v>
+      </c>
+      <c r="B101" t="s">
         <v>544</v>
-      </c>
-      <c r="B101" t="s">
-        <v>545</v>
       </c>
       <c r="C101" s="1">
         <v>45561</v>
@@ -4608,10 +4608,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>568</v>
+      </c>
+      <c r="B103" t="s">
         <v>569</v>
-      </c>
-      <c r="B103" t="s">
-        <v>570</v>
       </c>
       <c r="C103" s="1">
         <v>45558</v>
@@ -4648,10 +4648,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>594</v>
+      </c>
+      <c r="B105" t="s">
         <v>595</v>
-      </c>
-      <c r="B105" t="s">
-        <v>596</v>
       </c>
       <c r="C105" s="1">
         <v>45554</v>
@@ -4668,10 +4668,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>659</v>
+      </c>
+      <c r="B106" t="s">
         <v>660</v>
-      </c>
-      <c r="B106" t="s">
-        <v>661</v>
       </c>
       <c r="C106" s="1">
         <v>45552</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B107" t="s">
         <v>152</v>
@@ -4708,10 +4708,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>465</v>
+      </c>
+      <c r="B108" t="s">
         <v>466</v>
-      </c>
-      <c r="B108" t="s">
-        <v>467</v>
       </c>
       <c r="C108" s="1">
         <v>45537</v>
@@ -4768,10 +4768,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>662</v>
+      </c>
+      <c r="B111" t="s">
         <v>663</v>
-      </c>
-      <c r="B111" t="s">
-        <v>664</v>
       </c>
       <c r="C111" s="1">
         <v>45524</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B114" t="s">
         <v>155</v>
@@ -4888,10 +4888,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>665</v>
+      </c>
+      <c r="B117" t="s">
         <v>666</v>
-      </c>
-      <c r="B117" t="s">
-        <v>667</v>
       </c>
       <c r="C117" s="1">
         <v>45484</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>667</v>
+      </c>
+      <c r="B118" t="s">
         <v>668</v>
-      </c>
-      <c r="B118" t="s">
-        <v>669</v>
       </c>
       <c r="C118" s="1">
         <v>45482</v>
@@ -4928,10 +4928,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>669</v>
+      </c>
+      <c r="B119" t="s">
         <v>670</v>
-      </c>
-      <c r="B119" t="s">
-        <v>671</v>
       </c>
       <c r="C119" s="1">
         <v>45476</v>
@@ -4988,10 +4988,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>572</v>
+      </c>
+      <c r="B122" t="s">
         <v>573</v>
-      </c>
-      <c r="B122" t="s">
-        <v>574</v>
       </c>
       <c r="C122" s="1">
         <v>45461</v>
@@ -5068,10 +5068,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>671</v>
+      </c>
+      <c r="B126" t="s">
         <v>672</v>
-      </c>
-      <c r="B126" t="s">
-        <v>673</v>
       </c>
       <c r="C126" s="1">
         <v>45449</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>673</v>
+      </c>
+      <c r="B127" t="s">
         <v>674</v>
-      </c>
-      <c r="B127" t="s">
-        <v>675</v>
       </c>
       <c r="C127" s="1">
         <v>45446</v>
@@ -5108,10 +5108,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>675</v>
+      </c>
+      <c r="B128" t="s">
         <v>676</v>
-      </c>
-      <c r="B128" t="s">
-        <v>677</v>
       </c>
       <c r="C128" s="1">
         <v>45436</v>
@@ -5288,10 +5288,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>489</v>
+      </c>
+      <c r="B137" t="s">
         <v>490</v>
-      </c>
-      <c r="B137" t="s">
-        <v>491</v>
       </c>
       <c r="C137" s="1">
         <v>45425</v>
@@ -5308,10 +5308,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>529</v>
+      </c>
+      <c r="B138" t="s">
         <v>530</v>
-      </c>
-      <c r="B138" t="s">
-        <v>531</v>
       </c>
       <c r="C138" s="1">
         <v>45418</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B139" t="s">
         <v>57</v>
@@ -5508,10 +5508,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>475</v>
+      </c>
+      <c r="B148" t="s">
         <v>476</v>
-      </c>
-      <c r="B148" t="s">
-        <v>477</v>
       </c>
       <c r="C148" s="1">
         <v>45372</v>
@@ -6051,7 +6051,7 @@
         <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C175" s="1">
         <v>45253</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B182" t="s">
         <v>201</v>
@@ -6228,10 +6228,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>680</v>
+      </c>
+      <c r="B184" t="s">
         <v>681</v>
-      </c>
-      <c r="B184" t="s">
-        <v>682</v>
       </c>
       <c r="C184" s="1">
         <v>45196</v>
@@ -6248,7 +6248,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B185" t="s">
         <v>206</v>
@@ -6348,10 +6348,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>683</v>
+      </c>
+      <c r="B190" t="s">
         <v>684</v>
-      </c>
-      <c r="B190" t="s">
-        <v>685</v>
       </c>
       <c r="C190" s="1">
         <v>45189</v>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B193" t="s">
         <v>219</v>
@@ -6548,10 +6548,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>686</v>
+      </c>
+      <c r="B200" t="s">
         <v>687</v>
-      </c>
-      <c r="B200" t="s">
-        <v>688</v>
       </c>
       <c r="C200" s="1">
         <v>45131</v>
@@ -6588,10 +6588,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>688</v>
+      </c>
+      <c r="B202" t="s">
         <v>689</v>
-      </c>
-      <c r="B202" t="s">
-        <v>690</v>
       </c>
       <c r="C202" s="1">
         <v>45118</v>
@@ -6888,10 +6888,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>690</v>
+      </c>
+      <c r="B217" t="s">
         <v>691</v>
-      </c>
-      <c r="B217" t="s">
-        <v>692</v>
       </c>
       <c r="C217" s="1">
         <v>45060</v>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B242" t="s">
         <v>350</v>
@@ -7448,10 +7448,10 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>693</v>
+      </c>
+      <c r="B245" t="s">
         <v>694</v>
-      </c>
-      <c r="B245" t="s">
-        <v>695</v>
       </c>
       <c r="C245" s="1">
         <v>44938</v>
@@ -8128,10 +8128,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>449</v>
+      </c>
+      <c r="B279" t="s">
         <v>450</v>
-      </c>
-      <c r="B279" t="s">
-        <v>451</v>
       </c>
       <c r="C279" s="1">
         <v>44631</v>
@@ -8148,10 +8148,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>695</v>
+      </c>
+      <c r="B280" t="s">
         <v>696</v>
-      </c>
-      <c r="B280" t="s">
-        <v>697</v>
       </c>
       <c r="C280" s="1">
         <v>44625</v>
@@ -8168,10 +8168,10 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
+        <v>455</v>
+      </c>
+      <c r="B281" t="s">
         <v>456</v>
-      </c>
-      <c r="B281" t="s">
-        <v>457</v>
       </c>
       <c r="C281" s="1">
         <v>44593</v>
@@ -8188,10 +8188,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
+        <v>459</v>
+      </c>
+      <c r="B282" t="s">
         <v>460</v>
-      </c>
-      <c r="B282" t="s">
-        <v>461</v>
       </c>
       <c r="C282" s="1">
         <v>44578</v>
@@ -8208,10 +8208,10 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
+        <v>457</v>
+      </c>
+      <c r="B283" t="s">
         <v>458</v>
-      </c>
-      <c r="B283" t="s">
-        <v>459</v>
       </c>
       <c r="C283" s="1">
         <v>44578</v>
@@ -8228,10 +8228,10 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
+        <v>461</v>
+      </c>
+      <c r="B284" t="s">
         <v>462</v>
-      </c>
-      <c r="B284" t="s">
-        <v>463</v>
       </c>
       <c r="C284" s="1">
         <v>44572</v>
@@ -8248,10 +8248,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>463</v>
+      </c>
+      <c r="B285" t="s">
         <v>464</v>
-      </c>
-      <c r="B285" t="s">
-        <v>465</v>
       </c>
       <c r="C285" s="1">
         <v>44572</v>
@@ -8268,10 +8268,10 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
+        <v>467</v>
+      </c>
+      <c r="B286" t="s">
         <v>468</v>
-      </c>
-      <c r="B286" t="s">
-        <v>469</v>
       </c>
       <c r="C286" s="1">
         <v>44555</v>
@@ -8288,10 +8288,10 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
+        <v>469</v>
+      </c>
+      <c r="B287" t="s">
         <v>470</v>
-      </c>
-      <c r="B287" t="s">
-        <v>471</v>
       </c>
       <c r="C287" s="1">
         <v>44547</v>
@@ -8308,10 +8308,10 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
+        <v>471</v>
+      </c>
+      <c r="B288" t="s">
         <v>472</v>
-      </c>
-      <c r="B288" t="s">
-        <v>473</v>
       </c>
       <c r="C288" s="1">
         <v>44545</v>
@@ -8328,10 +8328,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
+        <v>477</v>
+      </c>
+      <c r="B289" t="s">
         <v>478</v>
-      </c>
-      <c r="B289" t="s">
-        <v>479</v>
       </c>
       <c r="C289" s="1">
         <v>44518</v>
@@ -8348,10 +8348,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
+        <v>479</v>
+      </c>
+      <c r="B290" t="s">
         <v>480</v>
-      </c>
-      <c r="B290" t="s">
-        <v>481</v>
       </c>
       <c r="C290" s="1">
         <v>44510</v>
@@ -8368,10 +8368,10 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
+        <v>481</v>
+      </c>
+      <c r="B291" t="s">
         <v>482</v>
-      </c>
-      <c r="B291" t="s">
-        <v>483</v>
       </c>
       <c r="C291" s="1">
         <v>44510</v>
@@ -8388,10 +8388,10 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
+        <v>483</v>
+      </c>
+      <c r="B292" t="s">
         <v>484</v>
-      </c>
-      <c r="B292" t="s">
-        <v>485</v>
       </c>
       <c r="C292" s="1">
         <v>44503</v>
@@ -8408,10 +8408,10 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
+        <v>485</v>
+      </c>
+      <c r="B293" t="s">
         <v>486</v>
-      </c>
-      <c r="B293" t="s">
-        <v>487</v>
       </c>
       <c r="C293" s="1">
         <v>44481</v>
@@ -8428,10 +8428,10 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
+        <v>487</v>
+      </c>
+      <c r="B294" t="s">
         <v>488</v>
-      </c>
-      <c r="B294" t="s">
-        <v>489</v>
       </c>
       <c r="C294" s="1">
         <v>44480</v>
@@ -8448,10 +8448,10 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
+        <v>697</v>
+      </c>
+      <c r="B295" t="s">
         <v>698</v>
-      </c>
-      <c r="B295" t="s">
-        <v>699</v>
       </c>
       <c r="C295" s="1">
         <v>44468</v>
@@ -8468,10 +8468,10 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
+        <v>491</v>
+      </c>
+      <c r="B296" t="s">
         <v>492</v>
-      </c>
-      <c r="B296" t="s">
-        <v>493</v>
       </c>
       <c r="C296" s="1">
         <v>44462</v>
@@ -8488,10 +8488,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
+        <v>493</v>
+      </c>
+      <c r="B297" t="s">
         <v>494</v>
-      </c>
-      <c r="B297" t="s">
-        <v>495</v>
       </c>
       <c r="C297" s="1">
         <v>44452</v>
@@ -8508,10 +8508,10 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
+        <v>495</v>
+      </c>
+      <c r="B298" t="s">
         <v>496</v>
-      </c>
-      <c r="B298" t="s">
-        <v>497</v>
       </c>
       <c r="C298" s="1">
         <v>44424</v>
@@ -8528,10 +8528,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>497</v>
+      </c>
+      <c r="B299" t="s">
         <v>498</v>
-      </c>
-      <c r="B299" t="s">
-        <v>499</v>
       </c>
       <c r="C299" s="1">
         <v>44420</v>
@@ -8548,10 +8548,10 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>499</v>
+      </c>
+      <c r="B300" t="s">
         <v>500</v>
-      </c>
-      <c r="B300" t="s">
-        <v>501</v>
       </c>
       <c r="C300" s="1">
         <v>44414</v>
@@ -8568,10 +8568,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
+        <v>501</v>
+      </c>
+      <c r="B301" t="s">
         <v>502</v>
-      </c>
-      <c r="B301" t="s">
-        <v>503</v>
       </c>
       <c r="C301" s="1">
         <v>44413</v>
@@ -8588,10 +8588,10 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
+        <v>699</v>
+      </c>
+      <c r="B302" t="s">
         <v>700</v>
-      </c>
-      <c r="B302" t="s">
-        <v>701</v>
       </c>
       <c r="C302" s="1">
         <v>44406</v>
@@ -8608,10 +8608,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
+        <v>503</v>
+      </c>
+      <c r="B303" t="s">
         <v>504</v>
-      </c>
-      <c r="B303" t="s">
-        <v>505</v>
       </c>
       <c r="C303" s="1">
         <v>44400</v>
@@ -8628,10 +8628,10 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
+        <v>507</v>
+      </c>
+      <c r="B304" t="s">
         <v>508</v>
-      </c>
-      <c r="B304" t="s">
-        <v>509</v>
       </c>
       <c r="C304" s="1">
         <v>44386</v>
@@ -8648,10 +8648,10 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
+        <v>509</v>
+      </c>
+      <c r="B305" t="s">
         <v>510</v>
-      </c>
-      <c r="B305" t="s">
-        <v>511</v>
       </c>
       <c r="C305" s="1">
         <v>44380</v>
@@ -8668,10 +8668,10 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
+        <v>511</v>
+      </c>
+      <c r="B306" t="s">
         <v>512</v>
-      </c>
-      <c r="B306" t="s">
-        <v>513</v>
       </c>
       <c r="C306" s="1">
         <v>44371</v>
@@ -8688,10 +8688,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>513</v>
+      </c>
+      <c r="B307" t="s">
         <v>514</v>
-      </c>
-      <c r="B307" t="s">
-        <v>515</v>
       </c>
       <c r="C307" s="1">
         <v>44371</v>
@@ -8708,10 +8708,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
+        <v>517</v>
+      </c>
+      <c r="B308" t="s">
         <v>518</v>
-      </c>
-      <c r="B308" t="s">
-        <v>519</v>
       </c>
       <c r="C308" s="1">
         <v>44358</v>
@@ -8728,10 +8728,10 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
+        <v>519</v>
+      </c>
+      <c r="B309" t="s">
         <v>520</v>
-      </c>
-      <c r="B309" t="s">
-        <v>521</v>
       </c>
       <c r="C309" s="1">
         <v>44354</v>
@@ -8748,10 +8748,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
+        <v>521</v>
+      </c>
+      <c r="B310" t="s">
         <v>522</v>
-      </c>
-      <c r="B310" t="s">
-        <v>523</v>
       </c>
       <c r="C310" s="1">
         <v>44322</v>
@@ -8768,10 +8768,10 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
+        <v>523</v>
+      </c>
+      <c r="B311" t="s">
         <v>524</v>
-      </c>
-      <c r="B311" t="s">
-        <v>525</v>
       </c>
       <c r="C311" s="1">
         <v>44321</v>
@@ -8788,10 +8788,10 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>525</v>
+      </c>
+      <c r="B312" t="s">
         <v>526</v>
-      </c>
-      <c r="B312" t="s">
-        <v>527</v>
       </c>
       <c r="C312" s="1">
         <v>44307</v>
@@ -8808,10 +8808,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
+        <v>527</v>
+      </c>
+      <c r="B313" t="s">
         <v>528</v>
-      </c>
-      <c r="B313" t="s">
-        <v>529</v>
       </c>
       <c r="C313" s="1">
         <v>44295</v>
@@ -8828,10 +8828,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
+        <v>531</v>
+      </c>
+      <c r="B314" t="s">
         <v>532</v>
-      </c>
-      <c r="B314" t="s">
-        <v>533</v>
       </c>
       <c r="C314" s="1">
         <v>44272</v>
@@ -8848,10 +8848,10 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>533</v>
+      </c>
+      <c r="B315" t="s">
         <v>534</v>
-      </c>
-      <c r="B315" t="s">
-        <v>535</v>
       </c>
       <c r="C315" s="1">
         <v>44264</v>
@@ -8868,10 +8868,10 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
+        <v>535</v>
+      </c>
+      <c r="B316" t="s">
         <v>536</v>
-      </c>
-      <c r="B316" t="s">
-        <v>537</v>
       </c>
       <c r="C316" s="1">
         <v>44259</v>
@@ -8888,10 +8888,10 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
+        <v>537</v>
+      </c>
+      <c r="B317" t="s">
         <v>538</v>
-      </c>
-      <c r="B317" t="s">
-        <v>539</v>
       </c>
       <c r="C317" s="1">
         <v>44259</v>
@@ -8908,10 +8908,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
+        <v>701</v>
+      </c>
+      <c r="B318" t="s">
         <v>702</v>
-      </c>
-      <c r="B318" t="s">
-        <v>703</v>
       </c>
       <c r="C318" s="1">
         <v>44253</v>
@@ -8928,10 +8928,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
+        <v>539</v>
+      </c>
+      <c r="B319" t="s">
         <v>540</v>
-      </c>
-      <c r="B319" t="s">
-        <v>541</v>
       </c>
       <c r="C319" s="1">
         <v>44243</v>
@@ -8948,10 +8948,10 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
+        <v>541</v>
+      </c>
+      <c r="B320" t="s">
         <v>542</v>
-      </c>
-      <c r="B320" t="s">
-        <v>543</v>
       </c>
       <c r="C320" s="1">
         <v>44239</v>
@@ -8968,10 +8968,10 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
+        <v>547</v>
+      </c>
+      <c r="B321" t="s">
         <v>548</v>
-      </c>
-      <c r="B321" t="s">
-        <v>549</v>
       </c>
       <c r="C321" s="1">
         <v>44230</v>
@@ -8988,10 +8988,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
+        <v>549</v>
+      </c>
+      <c r="B322" t="s">
         <v>550</v>
-      </c>
-      <c r="B322" t="s">
-        <v>551</v>
       </c>
       <c r="C322" s="1">
         <v>44214</v>
@@ -9008,10 +9008,10 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>551</v>
+      </c>
+      <c r="B323" t="s">
         <v>552</v>
-      </c>
-      <c r="B323" t="s">
-        <v>553</v>
       </c>
       <c r="C323" s="1">
         <v>44210</v>
@@ -9028,10 +9028,10 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>553</v>
+      </c>
+      <c r="B324" t="s">
         <v>554</v>
-      </c>
-      <c r="B324" t="s">
-        <v>555</v>
       </c>
       <c r="C324" s="1">
         <v>44208</v>
@@ -9048,10 +9048,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
+        <v>703</v>
+      </c>
+      <c r="B325" t="s">
         <v>704</v>
-      </c>
-      <c r="B325" t="s">
-        <v>705</v>
       </c>
       <c r="C325" s="1">
         <v>44203</v>
@@ -9068,10 +9068,10 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
+        <v>555</v>
+      </c>
+      <c r="B326" t="s">
         <v>556</v>
-      </c>
-      <c r="B326" t="s">
-        <v>557</v>
       </c>
       <c r="C326" s="1">
         <v>44202</v>
@@ -9088,10 +9088,10 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
+        <v>557</v>
+      </c>
+      <c r="B327" t="s">
         <v>558</v>
-      </c>
-      <c r="B327" t="s">
-        <v>559</v>
       </c>
       <c r="C327" s="1">
         <v>44180</v>
@@ -9108,10 +9108,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>559</v>
+      </c>
+      <c r="B328" t="s">
         <v>560</v>
-      </c>
-      <c r="B328" t="s">
-        <v>561</v>
       </c>
       <c r="C328" s="1">
         <v>44173</v>
@@ -9128,10 +9128,10 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
+        <v>561</v>
+      </c>
+      <c r="B329" t="s">
         <v>562</v>
-      </c>
-      <c r="B329" t="s">
-        <v>563</v>
       </c>
       <c r="C329" s="1">
         <v>44146</v>
@@ -9148,10 +9148,10 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
+        <v>565</v>
+      </c>
+      <c r="B330" t="s">
         <v>566</v>
-      </c>
-      <c r="B330" t="s">
-        <v>567</v>
       </c>
       <c r="C330" s="1">
         <v>44137</v>
@@ -9168,10 +9168,10 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B331" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C331" s="1">
         <v>44134</v>
@@ -9188,10 +9188,10 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
+        <v>570</v>
+      </c>
+      <c r="B332" t="s">
         <v>571</v>
-      </c>
-      <c r="B332" t="s">
-        <v>572</v>
       </c>
       <c r="C332" s="1">
         <v>44110</v>
@@ -9208,10 +9208,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
+        <v>574</v>
+      </c>
+      <c r="B333" t="s">
         <v>575</v>
-      </c>
-      <c r="B333" t="s">
-        <v>576</v>
       </c>
       <c r="C333" s="1">
         <v>44021</v>
@@ -9228,10 +9228,10 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
+        <v>576</v>
+      </c>
+      <c r="B334" t="s">
         <v>577</v>
-      </c>
-      <c r="B334" t="s">
-        <v>578</v>
       </c>
       <c r="C334" s="1">
         <v>44013</v>
@@ -9248,10 +9248,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>578</v>
+      </c>
+      <c r="B335" t="s">
         <v>579</v>
-      </c>
-      <c r="B335" t="s">
-        <v>580</v>
       </c>
       <c r="C335" s="1">
         <v>43983</v>
@@ -9268,10 +9268,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
+        <v>582</v>
+      </c>
+      <c r="B336" t="s">
         <v>583</v>
-      </c>
-      <c r="B336" t="s">
-        <v>584</v>
       </c>
       <c r="C336" s="1">
         <v>43976</v>
@@ -9288,10 +9288,10 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
+        <v>584</v>
+      </c>
+      <c r="B337" t="s">
         <v>585</v>
-      </c>
-      <c r="B337" t="s">
-        <v>586</v>
       </c>
       <c r="C337" s="1">
         <v>43899</v>
@@ -9308,10 +9308,10 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
+        <v>586</v>
+      </c>
+      <c r="B338" t="s">
         <v>587</v>
-      </c>
-      <c r="B338" t="s">
-        <v>588</v>
       </c>
       <c r="C338" s="1">
         <v>43879</v>
@@ -9328,10 +9328,10 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
+        <v>588</v>
+      </c>
+      <c r="B339" t="s">
         <v>589</v>
-      </c>
-      <c r="B339" t="s">
-        <v>590</v>
       </c>
       <c r="C339" s="1">
         <v>43871</v>
@@ -9348,10 +9348,10 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
+        <v>590</v>
+      </c>
+      <c r="B340" t="s">
         <v>591</v>
-      </c>
-      <c r="B340" t="s">
-        <v>592</v>
       </c>
       <c r="C340" s="1">
         <v>43861</v>
@@ -9368,10 +9368,10 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
+        <v>592</v>
+      </c>
+      <c r="B341" t="s">
         <v>593</v>
-      </c>
-      <c r="B341" t="s">
-        <v>594</v>
       </c>
       <c r="C341" s="1">
         <v>43850</v>
